--- a/【赵文博】网申管理表-协议-201102.xlsx
+++ b/【赵文博】网申管理表-协议-201102.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="221">
   <si>
     <t>账号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -615,10 +615,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2888</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -756,22 +752,6 @@
         <charset val="134"/>
       </rPr>
       <t>一起讨论素材</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>上传</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="20"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>【注：显示传unofficial或者scanned official的都是上传即可无需邮寄】</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1191,13 +1171,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://cse.mcmaster.ca/graduate-studies/application-process.html</t>
-  </si>
-  <si>
-    <t>visa 2021/5/1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Admissions Committee
 School of Computational Science and Engineering
 McMaster University
@@ -1345,6 +1318,60 @@
   </si>
   <si>
     <t>推荐信4（韩）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已邮寄</t>
+  </si>
+  <si>
+    <t>已发送</t>
+  </si>
+  <si>
+    <t>phs</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>cv</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已传</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ps</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>已传</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>二网申传文件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>visa 2021/5/31</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cse.mcmaster.ca/graduate-studies/application-process.html</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1355,7 +1382,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1574,13 +1601,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
@@ -1770,7 +1790,7 @@
     </xf>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1914,7 +1934,13 @@
     <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="34" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="18" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2547,10 +2573,10 @@
   <dimension ref="A1:AF13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="T2" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="V7" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="Z2" sqref="Z2"/>
+      <selection pane="bottomRight" activeCell="AB2" sqref="AB2:AB10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2655,16 +2681,16 @@
         <v>43</v>
       </c>
       <c r="W1" s="30" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="X1" s="30" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="Y1" s="30" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z1" s="30" t="s">
         <v>212</v>
-      </c>
-      <c r="Z1" s="30" t="s">
-        <v>216</v>
       </c>
       <c r="AA1" s="30" t="s">
         <v>38</v>
@@ -2706,26 +2732,26 @@
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I2" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>147</v>
+        <v>120</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
@@ -2735,22 +2761,22 @@
         <v>13</v>
       </c>
       <c r="U2" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V2" s="11" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="W2" s="20" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="X2" s="20" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="Y2" s="20" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Z2" s="20" t="s">
-        <v>213</v>
+        <v>15</v>
       </c>
       <c r="AA2" s="20" t="s">
         <v>13</v>
@@ -2774,7 +2800,7 @@
         <v>102</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>109</v>
@@ -2784,23 +2810,23 @@
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="I3" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="N3" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>120</v>
@@ -2809,28 +2835,28 @@
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="T3" s="23" t="s">
         <v>13</v>
       </c>
       <c r="U3" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V3" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W3" s="20" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="X3" s="20" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="Y3" s="20" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="Z3" s="20" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AA3" s="20" t="s">
         <v>13</v>
@@ -2854,7 +2880,7 @@
         <v>103</v>
       </c>
       <c r="D4" s="45" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>111</v>
@@ -2863,26 +2889,26 @@
         <v>112</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>120</v>
@@ -2891,28 +2917,28 @@
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="T4" s="23" t="s">
         <v>13</v>
       </c>
       <c r="U4" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V4" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="W4" s="20" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="X4" s="20" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="Y4" s="20" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Z4" s="20" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AA4" s="20" t="s">
         <v>13</v>
@@ -2936,35 +2962,35 @@
         <v>104</v>
       </c>
       <c r="D5" s="45" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>113</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I5" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="J5" s="6" t="s">
-        <v>126</v>
-      </c>
       <c r="K5" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>120</v>
@@ -2973,28 +2999,28 @@
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="T5" s="23" t="s">
         <v>13</v>
       </c>
       <c r="U5" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V5" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W5" s="20" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="X5" s="20" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="Y5" s="20" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Z5" s="20" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AA5" s="20" t="s">
         <v>13</v>
@@ -3018,7 +3044,7 @@
         <v>105</v>
       </c>
       <c r="D6" s="45" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>114</v>
@@ -3028,23 +3054,23 @@
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="I6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="K6" s="2"/>
       <c r="L6" s="4" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="O6" s="4" t="s">
         <v>120</v>
@@ -3057,22 +3083,22 @@
         <v>13</v>
       </c>
       <c r="U6" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V6" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="W6" s="20" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="X6" s="20" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="Y6" s="20" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Z6" s="20" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AA6" s="20" t="s">
         <v>13</v>
@@ -3081,8 +3107,12 @@
         <v>13</v>
       </c>
       <c r="AC6" s="2"/>
-      <c r="AD6" s="2"/>
-      <c r="AE6" s="2"/>
+      <c r="AD6" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE6" s="49" t="s">
+        <v>215</v>
+      </c>
       <c r="AF6" s="2"/>
     </row>
     <row r="7" spans="1:32" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -3093,10 +3123,10 @@
         <v>99</v>
       </c>
       <c r="C7" s="45" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D7" s="45" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>116</v>
@@ -3105,58 +3135,58 @@
         <v>117</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="I7" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="K7" s="2"/>
       <c r="L7" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="O7" s="48" t="s">
         <v>157</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="O7" s="48" t="s">
-        <v>159</v>
-      </c>
       <c r="P7" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="S7" s="6"/>
       <c r="T7" s="23" t="s">
         <v>13</v>
       </c>
       <c r="U7" s="23" t="s">
-        <v>13</v>
+        <v>213</v>
       </c>
       <c r="V7" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W7" s="20" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="X7" s="20" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="Y7" s="20" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Z7" s="20" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AA7" s="20" t="s">
         <v>13</v>
@@ -3180,33 +3210,33 @@
         <v>106</v>
       </c>
       <c r="D8" s="45" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>118</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="I8" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>125</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>126</v>
       </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>120</v>
@@ -3215,28 +3245,28 @@
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="6" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="T8" s="23" t="s">
         <v>13</v>
       </c>
       <c r="U8" s="23" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V8" s="3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="W8" s="20" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="X8" s="20" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="Y8" s="20" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Z8" s="20" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AA8" s="20" t="s">
         <v>13</v>
@@ -3254,39 +3284,39 @@
         <v>54</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D9" s="45" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="O9" s="4" t="s">
         <v>120</v>
@@ -3296,25 +3326,25 @@
       <c r="R9" s="2"/>
       <c r="S9" s="12"/>
       <c r="T9" s="23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U9" s="23" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
       <c r="V9" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="W9" s="20" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="X9" s="20" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="Y9" s="20" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="Z9" s="20" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AA9" s="20" t="s">
         <v>13</v>
@@ -3322,9 +3352,15 @@
       <c r="AB9" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="2"/>
+      <c r="AC9" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="AD9" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE9" s="49" t="s">
+        <v>215</v>
+      </c>
       <c r="AF9" s="2"/>
     </row>
     <row r="10" spans="1:32" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -3332,50 +3368,50 @@
         <v>55</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D10" s="45" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="I10" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="I10" s="6" t="s">
-        <v>190</v>
-      </c>
       <c r="J10" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K10" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="L10" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="L10" s="4" t="s">
-        <v>209</v>
-      </c>
       <c r="M10" s="2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="O10" s="4" t="s">
         <v>120</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
+      <c r="R10" s="4"/>
       <c r="S10" s="9" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="T10" s="23" t="s">
         <v>13</v>
@@ -3384,7 +3420,7 @@
         <v>13</v>
       </c>
       <c r="V10" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="W10" s="20" t="s">
         <v>24</v>
@@ -3393,10 +3429,10 @@
         <v>24</v>
       </c>
       <c r="Y10" s="20" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Z10" s="20" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AA10" s="20" t="s">
         <v>13</v>
@@ -3407,94 +3443,98 @@
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
       <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
+      <c r="AF10" s="4" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="11" spans="1:32" ht="125.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="27" t="s">
         <v>56</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C11" s="46" t="s">
+        <v>203</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>219</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F11" s="50" t="s">
+        <v>220</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="L11" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="D11" s="45" t="s">
-        <v>198</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="M11" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="O11" s="48" t="s">
         <v>194</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="H11" s="7" t="s">
+      <c r="P11" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="N11" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="O11" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="S11" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="T11" s="23" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="U11" s="23" t="s">
-        <v>13</v>
+        <v>213</v>
       </c>
       <c r="V11" s="11" t="s">
         <v>48</v>
       </c>
       <c r="W11" s="21" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="X11" s="21" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="Y11" s="21" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="Z11" s="20" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="AA11" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="AB11" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC11" s="2"/>
-      <c r="AD11" s="2"/>
-      <c r="AE11" s="2"/>
+      <c r="AB11" s="20"/>
+      <c r="AC11" s="49" t="s">
+        <v>217</v>
+      </c>
+      <c r="AD11" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE11" s="49"/>
       <c r="AF11" s="2"/>
     </row>
     <row r="12" spans="1:32" ht="80.099999999999994" customHeight="1" x14ac:dyDescent="0.15">
@@ -3587,12 +3627,12 @@
       <formula>NOT(ISERROR(SEARCH("未完成",T2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AA11:AB13">
+  <conditionalFormatting sqref="AA11:AB13 AA2:AA10">
     <cfRule type="containsText" dxfId="24" priority="19" operator="containsText" text="未完成">
-      <formula>NOT(ISERROR(SEARCH("未完成",AA11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("未完成",AA2)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="23" priority="20" operator="containsText" text="完成">
-      <formula>NOT(ISERROR(SEARCH("完成",AA11)))</formula>
+      <formula>NOT(ISERROR(SEARCH("完成",AA2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA2:AB11">
@@ -3696,9 +3736,10 @@
   <hyperlinks>
     <hyperlink ref="S11" r:id="rId1"/>
     <hyperlink ref="S10" r:id="rId2"/>
+    <hyperlink ref="F11" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
@@ -3820,12 +3861,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21.75" x14ac:dyDescent="0.35">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="B1" s="51"/>
+      <c r="C1" s="51"/>
+      <c r="D1" s="51"/>
     </row>
     <row r="2" spans="1:4" s="33" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -3856,7 +3897,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" s="33" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="52" t="s">
         <v>63</v>
       </c>
       <c r="B4" s="34" t="s">
@@ -3870,7 +3911,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="34" t="s">
         <v>66</v>
       </c>
@@ -3882,7 +3923,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="34" t="s">
         <v>68</v>
       </c>
@@ -3894,7 +3935,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" s="33" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="34" t="s">
         <v>70</v>
       </c>
@@ -3906,7 +3947,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="52"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="34" t="s">
         <v>72</v>
       </c>
@@ -3918,7 +3959,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" s="33" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="52" t="s">
         <v>73</v>
       </c>
       <c r="B9" s="34" t="s">
@@ -3932,7 +3973,7 @@
       </c>
     </row>
     <row r="10" spans="1:4" s="33" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="34" t="s">
         <v>75</v>
       </c>
@@ -3944,7 +3985,7 @@
       </c>
     </row>
     <row r="11" spans="1:4" s="33" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="51"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="34" t="s">
         <v>76</v>
       </c>
@@ -3956,7 +3997,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" s="33" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="34" t="s">
         <v>79</v>
       </c>
@@ -3968,7 +4009,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" s="33" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="34" t="s">
         <v>80</v>
       </c>
@@ -3980,7 +4021,7 @@
       </c>
     </row>
     <row r="14" spans="1:4" s="33" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="52"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="34" t="s">
         <v>81</v>
       </c>
@@ -3992,7 +4033,7 @@
       </c>
     </row>
     <row r="15" spans="1:4" s="33" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="52" t="s">
         <v>82</v>
       </c>
       <c r="B15" s="34" t="s">
@@ -4006,7 +4047,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" s="33" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="52"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="34" t="s">
         <v>84</v>
       </c>
